--- a/dataset/cleanData/dataYear/data_2017.xlsx
+++ b/dataset/cleanData/dataYear/data_2017.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>43098</v>
+      <c r="B2" t="n">
+        <v>20171229</v>
       </c>
       <c r="C2" t="n">
         <v>145063307</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>43098</v>
+      <c r="B3" t="n">
+        <v>20171229</v>
       </c>
       <c r="C3" t="n">
         <v>1551153</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>43098</v>
+      <c r="B4" t="n">
+        <v>20171229</v>
       </c>
       <c r="C4" t="n">
         <v>321782654</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>43098</v>
+      <c r="B5" t="n">
+        <v>20171229</v>
       </c>
       <c r="C5" t="n">
         <v>15582748</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>43098</v>
+      <c r="B6" t="n">
+        <v>20171229</v>
       </c>
       <c r="C6" t="n">
         <v>59533552</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>43098</v>
+      <c r="B7" t="n">
+        <v>20171229</v>
       </c>
       <c r="C7" t="n">
         <v>126294298</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>43098</v>
+      <c r="B8" t="n">
+        <v>20171229</v>
       </c>
       <c r="C8" t="n">
         <v>168324564</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>43098</v>
+      <c r="B9" t="n">
+        <v>20171229</v>
       </c>
       <c r="C9" t="n">
         <v>257588380</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>43098</v>
+      <c r="B10" t="n">
+        <v>20171229</v>
       </c>
       <c r="C10" t="n">
         <v>22820979</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>43098</v>
+      <c r="B11" t="n">
+        <v>20171229</v>
       </c>
       <c r="C11" t="n">
         <v>455300</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>43098</v>
+      <c r="B12" t="n">
+        <v>20171229</v>
       </c>
       <c r="C12" t="n">
         <v>2394035</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>43098</v>
+      <c r="B13" t="n">
+        <v>20171229</v>
       </c>
       <c r="C13" t="n">
         <v>33623284</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>43098</v>
+      <c r="B14" t="n">
+        <v>20171229</v>
       </c>
       <c r="C14" t="n">
         <v>43185288</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>43098</v>
+      <c r="B15" t="n">
+        <v>20171229</v>
       </c>
       <c r="C15" t="n">
         <v>1814029</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>43098</v>
+      <c r="B16" t="n">
+        <v>20171229</v>
       </c>
       <c r="C16" t="n">
         <v>562682014</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>43098</v>
+      <c r="B17" t="n">
+        <v>20171229</v>
       </c>
       <c r="C17" t="n">
         <v>9452349</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>43098</v>
+      <c r="B18" t="n">
+        <v>20171229</v>
       </c>
       <c r="C18" t="n">
         <v>23200572</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>43098</v>
+      <c r="B19" t="n">
+        <v>20171229</v>
       </c>
       <c r="C19" t="n">
         <v>3281940</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>43098</v>
+      <c r="B20" t="n">
+        <v>20171229</v>
       </c>
       <c r="C20" t="n">
         <v>2853342</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>43098</v>
+      <c r="B21" t="n">
+        <v>20171229</v>
       </c>
       <c r="C21" t="n">
         <v>3911821</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>43098</v>
+      <c r="B22" t="n">
+        <v>20171229</v>
       </c>
       <c r="C22" t="n">
         <v>2552428</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>43098</v>
+      <c r="B23" t="n">
+        <v>20171229</v>
       </c>
       <c r="C23" t="n">
         <v>1841440</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>43098</v>
+      <c r="B24" t="n">
+        <v>20171229</v>
       </c>
       <c r="C24" t="n">
         <v>1027233</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>43098</v>
+      <c r="B25" t="n">
+        <v>20171229</v>
       </c>
       <c r="C25" t="n">
         <v>4003240</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>43098</v>
+      <c r="B26" t="n">
+        <v>20171229</v>
       </c>
       <c r="C26" t="n">
         <v>1508135</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>43098</v>
+      <c r="B27" t="n">
+        <v>20171229</v>
       </c>
       <c r="C27" t="n">
         <v>15862621</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>43098</v>
+      <c r="B28" t="n">
+        <v>20171229</v>
       </c>
       <c r="C28" t="n">
         <v>2876139</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>43098</v>
+      <c r="B29" t="n">
+        <v>20171229</v>
       </c>
       <c r="C29" t="n">
         <v>19881489</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>43098</v>
+      <c r="B30" t="n">
+        <v>20171229</v>
       </c>
       <c r="C30" t="n">
         <v>7413533</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>43098</v>
+      <c r="B31" t="n">
+        <v>20171229</v>
       </c>
       <c r="C31" t="n">
         <v>1122653</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>43098</v>
+      <c r="B32" t="n">
+        <v>20171229</v>
       </c>
       <c r="C32" t="n">
         <v>1599908</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>43098</v>
+      <c r="B33" t="n">
+        <v>20171229</v>
       </c>
       <c r="C33" t="n">
         <v>4591742</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>43098</v>
+      <c r="B34" t="n">
+        <v>20171229</v>
       </c>
       <c r="C34" t="n">
         <v>270205662</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>43098</v>
+      <c r="B35" t="n">
+        <v>20171229</v>
       </c>
       <c r="C35" t="n">
         <v>1898746</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>43098</v>
+      <c r="B36" t="n">
+        <v>20171229</v>
       </c>
       <c r="C36" t="n">
         <v>1533215</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>43098</v>
+      <c r="B37" t="n">
+        <v>20171229</v>
       </c>
       <c r="C37" t="n">
         <v>8605071</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>43098</v>
+      <c r="B38" t="n">
+        <v>20171229</v>
       </c>
       <c r="C38" t="n">
         <v>1172389</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>43098</v>
+      <c r="B39" t="n">
+        <v>20171229</v>
       </c>
       <c r="C39" t="n">
         <v>5482055</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>43098</v>
+      <c r="B40" t="n">
+        <v>20171229</v>
       </c>
       <c r="C40" t="n">
         <v>20499461</v>
@@ -3651,8 +3647,8 @@
           <t>3712</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>43098</v>
+      <c r="B41" t="n">
+        <v>20171229</v>
       </c>
       <c r="C41" t="n">
         <v>1851765</v>
@@ -3730,8 +3726,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>43098</v>
+      <c r="B42" t="n">
+        <v>20171229</v>
       </c>
       <c r="C42" t="n">
         <v>5612569</v>
@@ -3809,8 +3805,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>43098</v>
+      <c r="B43" t="n">
+        <v>20171229</v>
       </c>
       <c r="C43" t="n">
         <v>395398572</v>
@@ -3888,8 +3884,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>43098</v>
+      <c r="B44" t="n">
+        <v>20171229</v>
       </c>
       <c r="C44" t="n">
         <v>1708812</v>
@@ -3967,8 +3963,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>43098</v>
+      <c r="B45" t="n">
+        <v>20171229</v>
       </c>
       <c r="C45" t="n">
         <v>2792239</v>
@@ -4046,8 +4042,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>43098</v>
+      <c r="B46" t="n">
+        <v>20171229</v>
       </c>
       <c r="C46" t="n">
         <v>2427935</v>
@@ -4125,8 +4121,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>43098</v>
+      <c r="B47" t="n">
+        <v>20171229</v>
       </c>
       <c r="C47" t="n">
         <v>3446383</v>
@@ -4204,8 +4200,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>43098</v>
+      <c r="B48" t="n">
+        <v>20171229</v>
       </c>
       <c r="C48" t="n">
         <v>5633199</v>
@@ -4283,8 +4279,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>43098</v>
+      <c r="B49" t="n">
+        <v>20171229</v>
       </c>
       <c r="C49" t="n">
         <v>4182710</v>
@@ -4362,8 +4358,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>43098</v>
+      <c r="B50" t="n">
+        <v>20171229</v>
       </c>
       <c r="C50" t="n">
         <v>4875493</v>
@@ -4441,8 +4437,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>43098</v>
+      <c r="B51" t="n">
+        <v>20171229</v>
       </c>
       <c r="C51" t="n">
         <v>2743525</v>
@@ -4520,8 +4516,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>43098</v>
+      <c r="B52" t="n">
+        <v>20171229</v>
       </c>
       <c r="C52" t="n">
         <v>3445070</v>
@@ -4599,8 +4595,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>43098</v>
+      <c r="B53" t="n">
+        <v>20171229</v>
       </c>
       <c r="C53" t="n">
         <v>30309456</v>
@@ -4678,8 +4674,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>43098</v>
+      <c r="B54" t="n">
+        <v>20171229</v>
       </c>
       <c r="C54" t="n">
         <v>4880144</v>
@@ -4757,8 +4753,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>43098</v>
+      <c r="B55" t="n">
+        <v>20171229</v>
       </c>
       <c r="C55" t="n">
         <v>1227447</v>
@@ -4836,8 +4832,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>43098</v>
+      <c r="B56" t="n">
+        <v>20171229</v>
       </c>
       <c r="C56" t="n">
         <v>25609520</v>
@@ -4915,8 +4911,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>43098</v>
+      <c r="B57" t="n">
+        <v>20171229</v>
       </c>
       <c r="C57" t="n">
         <v>6065772</v>
@@ -4994,8 +4990,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>43098</v>
+      <c r="B58" t="n">
+        <v>20171229</v>
       </c>
       <c r="C58" t="n">
         <v>10028855</v>
@@ -5073,8 +5069,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>43098</v>
+      <c r="B59" t="n">
+        <v>20171229</v>
       </c>
       <c r="C59" t="n">
         <v>3504349</v>
@@ -5152,8 +5148,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>43098</v>
+      <c r="B60" t="n">
+        <v>20171229</v>
       </c>
       <c r="C60" t="n">
         <v>413709</v>

--- a/dataset/cleanData/dataYear/data_2017.xlsx
+++ b/dataset/cleanData/dataYear/data_2017.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2017.xlsx
+++ b/dataset/cleanData/dataYear/data_2017.xlsx
@@ -642,226 +642,226 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>20171229</v>
       </c>
       <c r="C3" t="n">
-        <v>1551153</v>
+        <v>270205662</v>
       </c>
       <c r="D3" t="n">
-        <v>1361710</v>
+        <v>56447720</v>
       </c>
       <c r="E3" t="n">
-        <v>2912863</v>
+        <v>326653382</v>
       </c>
       <c r="F3" t="n">
-        <v>419829</v>
+        <v>254191674</v>
       </c>
       <c r="G3" t="n">
-        <v>203295</v>
+        <v>6040646</v>
       </c>
       <c r="H3" t="n">
-        <v>623124</v>
+        <v>260232320</v>
       </c>
       <c r="I3" t="n">
-        <v>2289739</v>
+        <v>66421062</v>
       </c>
       <c r="J3" t="n">
-        <v>2912863</v>
+        <v>326653382</v>
       </c>
       <c r="K3" t="n">
-        <v>2056608</v>
+        <v>27486880</v>
       </c>
       <c r="L3" t="n">
-        <v>2056608</v>
+        <v>27486880</v>
       </c>
       <c r="M3" t="n">
-        <v>-49781</v>
+        <v>-1753005</v>
       </c>
       <c r="N3" t="n">
-        <v>762642</v>
+        <v>6158411</v>
       </c>
       <c r="O3" t="n">
-        <v>2376.97</v>
+        <v>45.72</v>
       </c>
       <c r="P3" t="n">
-        <v>80.59999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>117.95</v>
+        <v>0.74</v>
       </c>
       <c r="R3" t="n">
-        <v>32.26</v>
+        <v>3.78</v>
       </c>
       <c r="S3" t="n">
-        <v>-22.72</v>
+        <v>0.71</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>20171229</v>
       </c>
       <c r="C4" t="n">
-        <v>321782654</v>
+        <v>1551153</v>
       </c>
       <c r="D4" t="n">
-        <v>41573767</v>
+        <v>1361710</v>
       </c>
       <c r="E4" t="n">
-        <v>363356421</v>
+        <v>2912863</v>
       </c>
       <c r="F4" t="n">
-        <v>231955732</v>
+        <v>419829</v>
       </c>
       <c r="G4" t="n">
-        <v>22752717</v>
+        <v>203295</v>
       </c>
       <c r="H4" t="n">
-        <v>254708449</v>
+        <v>623124</v>
       </c>
       <c r="I4" t="n">
-        <v>108647972</v>
+        <v>2289739</v>
       </c>
       <c r="J4" t="n">
-        <v>363356421</v>
+        <v>2912863</v>
       </c>
       <c r="K4" t="n">
-        <v>44191916</v>
+        <v>2056608</v>
       </c>
       <c r="L4" t="n">
-        <v>44191916</v>
+        <v>2056608</v>
       </c>
       <c r="M4" t="n">
-        <v>-881247</v>
+        <v>-49781</v>
       </c>
       <c r="N4" t="n">
-        <v>8114277</v>
+        <v>762642</v>
       </c>
       <c r="O4" t="n">
-        <v>-31.33</v>
+        <v>2376.97</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6899999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.91</v>
+        <v>117.95</v>
       </c>
       <c r="R4" t="n">
-        <v>3.6</v>
+        <v>32.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.04</v>
+        <v>-22.72</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20171229</v>
       </c>
       <c r="C5" t="n">
-        <v>15582748</v>
+        <v>321782654</v>
       </c>
       <c r="D5" t="n">
-        <v>6337971</v>
+        <v>41573767</v>
       </c>
       <c r="E5" t="n">
-        <v>21920719</v>
+        <v>363356421</v>
       </c>
       <c r="F5" t="n">
-        <v>9631841</v>
+        <v>231955732</v>
       </c>
       <c r="G5" t="n">
-        <v>528556</v>
+        <v>22752717</v>
       </c>
       <c r="H5" t="n">
-        <v>10160397</v>
+        <v>254708449</v>
       </c>
       <c r="I5" t="n">
-        <v>11760322</v>
+        <v>108647972</v>
       </c>
       <c r="J5" t="n">
-        <v>21920719</v>
+        <v>363356421</v>
       </c>
       <c r="K5" t="n">
-        <v>5574030</v>
+        <v>44191916</v>
       </c>
       <c r="L5" t="n">
-        <v>5574030</v>
+        <v>44191916</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-881247</v>
       </c>
       <c r="N5" t="n">
-        <v>375801</v>
+        <v>8114277</v>
       </c>
       <c r="O5" t="n">
-        <v>125.5</v>
+        <v>-31.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.25</v>
+        <v>0.91</v>
       </c>
       <c r="R5" t="n">
-        <v>10.13</v>
+        <v>3.6</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01</v>
+        <v>1.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -873,147 +873,147 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20171229</v>
       </c>
       <c r="C6" t="n">
-        <v>59533552</v>
+        <v>15582748</v>
       </c>
       <c r="D6" t="n">
-        <v>49405864</v>
+        <v>6337971</v>
       </c>
       <c r="E6" t="n">
-        <v>108939416</v>
+        <v>21920719</v>
       </c>
       <c r="F6" t="n">
-        <v>56338130</v>
+        <v>9631841</v>
       </c>
       <c r="G6" t="n">
-        <v>15056800</v>
+        <v>528556</v>
       </c>
       <c r="H6" t="n">
-        <v>71394930</v>
+        <v>10160397</v>
       </c>
       <c r="I6" t="n">
-        <v>37544486</v>
+        <v>11760322</v>
       </c>
       <c r="J6" t="n">
-        <v>108939416</v>
+        <v>21920719</v>
       </c>
       <c r="K6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="L6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6419192</v>
+        <v>375801</v>
       </c>
       <c r="O6" t="n">
-        <v>39.05</v>
+        <v>125.5</v>
       </c>
       <c r="P6" t="n">
-        <v>4.13</v>
+        <v>0.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.69</v>
+        <v>1.25</v>
       </c>
       <c r="R6" t="n">
-        <v>11.93</v>
+        <v>10.13</v>
       </c>
       <c r="S6" t="n">
-        <v>2.49</v>
+        <v>-0.01</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20171229</v>
       </c>
       <c r="C7" t="n">
-        <v>126294298</v>
+        <v>59533552</v>
       </c>
       <c r="D7" t="n">
-        <v>31318473</v>
+        <v>49405864</v>
       </c>
       <c r="E7" t="n">
-        <v>157612771</v>
+        <v>108939416</v>
       </c>
       <c r="F7" t="n">
-        <v>93239933</v>
+        <v>56338130</v>
       </c>
       <c r="G7" t="n">
-        <v>6397432</v>
+        <v>15056800</v>
       </c>
       <c r="H7" t="n">
-        <v>99637365</v>
+        <v>71394930</v>
       </c>
       <c r="I7" t="n">
-        <v>57975406</v>
+        <v>37544486</v>
       </c>
       <c r="J7" t="n">
-        <v>157612771</v>
+        <v>108939416</v>
       </c>
       <c r="K7" t="n">
-        <v>30765028</v>
+        <v>19667820</v>
       </c>
       <c r="L7" t="n">
-        <v>30765028</v>
+        <v>19667820</v>
       </c>
       <c r="M7" t="n">
-        <v>-2914856</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3439132</v>
+        <v>6419192</v>
       </c>
       <c r="O7" t="n">
-        <v>157.07</v>
+        <v>39.05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.18</v>
+        <v>4.13</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>4.69</v>
       </c>
       <c r="R7" t="n">
-        <v>10.69</v>
+        <v>11.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>2.49</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1037,74 +1037,74 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20171229</v>
       </c>
       <c r="C8" t="n">
-        <v>168324564</v>
+        <v>126294298</v>
       </c>
       <c r="D8" t="n">
-        <v>40443263</v>
+        <v>31318473</v>
       </c>
       <c r="E8" t="n">
-        <v>208767827</v>
+        <v>157612771</v>
       </c>
       <c r="F8" t="n">
-        <v>142830554</v>
+        <v>93239933</v>
       </c>
       <c r="G8" t="n">
-        <v>7006659</v>
+        <v>6397432</v>
       </c>
       <c r="H8" t="n">
-        <v>149837213</v>
+        <v>99637365</v>
       </c>
       <c r="I8" t="n">
-        <v>58930614</v>
+        <v>57975406</v>
       </c>
       <c r="J8" t="n">
-        <v>208767827</v>
+        <v>157612771</v>
       </c>
       <c r="K8" t="n">
-        <v>35874751</v>
+        <v>30765028</v>
       </c>
       <c r="L8" t="n">
-        <v>35874751</v>
+        <v>30765028</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2914856</v>
       </c>
       <c r="N8" t="n">
-        <v>7186448</v>
+        <v>3439132</v>
       </c>
       <c r="O8" t="n">
-        <v>-12.76</v>
+        <v>157.07</v>
       </c>
       <c r="P8" t="n">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>5.36</v>
+        <v>10.69</v>
       </c>
       <c r="S8" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1116,62 +1116,62 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20171229</v>
       </c>
       <c r="C9" t="n">
-        <v>257588380</v>
+        <v>168324564</v>
       </c>
       <c r="D9" t="n">
-        <v>87302789</v>
+        <v>40443263</v>
       </c>
       <c r="E9" t="n">
-        <v>344891169</v>
+        <v>208767827</v>
       </c>
       <c r="F9" t="n">
-        <v>153886173</v>
+        <v>142830554</v>
       </c>
       <c r="G9" t="n">
-        <v>12330693</v>
+        <v>7006659</v>
       </c>
       <c r="H9" t="n">
-        <v>166216866</v>
+        <v>149837213</v>
       </c>
       <c r="I9" t="n">
-        <v>178674303</v>
+        <v>58930614</v>
       </c>
       <c r="J9" t="n">
-        <v>344891169</v>
+        <v>208767827</v>
       </c>
       <c r="K9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="L9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>19963734</v>
+        <v>7186448</v>
       </c>
       <c r="O9" t="n">
-        <v>-18.24</v>
+        <v>-12.76</v>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>0.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.6</v>
+        <v>1.54</v>
       </c>
       <c r="R9" t="n">
-        <v>13.69</v>
+        <v>5.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.93</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1195,77 +1195,77 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20171229</v>
       </c>
       <c r="C10" t="n">
-        <v>22820979</v>
+        <v>257588380</v>
       </c>
       <c r="D10" t="n">
-        <v>89646259</v>
+        <v>87302789</v>
       </c>
       <c r="E10" t="n">
-        <v>112467238</v>
+        <v>344891169</v>
       </c>
       <c r="F10" t="n">
-        <v>21894165</v>
+        <v>153886173</v>
       </c>
       <c r="G10" t="n">
-        <v>48273038</v>
+        <v>12330693</v>
       </c>
       <c r="H10" t="n">
-        <v>70167203</v>
+        <v>166216866</v>
       </c>
       <c r="I10" t="n">
-        <v>42300035</v>
+        <v>178674303</v>
       </c>
       <c r="J10" t="n">
-        <v>112467238</v>
+        <v>344891169</v>
       </c>
       <c r="K10" t="n">
-        <v>6831630</v>
+        <v>7427603</v>
       </c>
       <c r="L10" t="n">
-        <v>6831630</v>
+        <v>7427603</v>
       </c>
       <c r="M10" t="n">
-        <v>-625346</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1502956</v>
+        <v>19963734</v>
       </c>
       <c r="O10" t="n">
-        <v>20.98</v>
+        <v>-18.24</v>
       </c>
       <c r="P10" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="R10" t="n">
-        <v>22.89</v>
+        <v>13.69</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
@@ -1274,156 +1274,156 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20171229</v>
       </c>
       <c r="C11" t="n">
-        <v>455300</v>
+        <v>22820979</v>
       </c>
       <c r="D11" t="n">
-        <v>697093</v>
+        <v>89646259</v>
       </c>
       <c r="E11" t="n">
-        <v>1152393</v>
+        <v>112467238</v>
       </c>
       <c r="F11" t="n">
-        <v>738263</v>
+        <v>21894165</v>
       </c>
       <c r="G11" t="n">
-        <v>5776</v>
+        <v>48273038</v>
       </c>
       <c r="H11" t="n">
-        <v>744039</v>
+        <v>70167203</v>
       </c>
       <c r="I11" t="n">
-        <v>408354</v>
+        <v>42300035</v>
       </c>
       <c r="J11" t="n">
-        <v>1152393</v>
+        <v>112467238</v>
       </c>
       <c r="K11" t="n">
-        <v>1989314</v>
+        <v>6831630</v>
       </c>
       <c r="L11" t="n">
-        <v>1989398</v>
+        <v>6831630</v>
       </c>
       <c r="M11" t="n">
-        <v>-202059</v>
+        <v>-625346</v>
       </c>
       <c r="N11" t="n">
-        <v>-183598</v>
+        <v>1502956</v>
       </c>
       <c r="O11" t="n">
-        <v>-7.24</v>
+        <v>20.98</v>
       </c>
       <c r="P11" t="n">
-        <v>-31.84</v>
+        <v>3.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>-30.5</v>
+        <v>7.2</v>
       </c>
       <c r="R11" t="n">
-        <v>17</v>
+        <v>22.89</v>
       </c>
       <c r="S11" t="n">
-        <v>-27.84</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20171229</v>
       </c>
       <c r="C12" t="n">
-        <v>2394035</v>
+        <v>455300</v>
       </c>
       <c r="D12" t="n">
-        <v>2750405</v>
+        <v>697093</v>
       </c>
       <c r="E12" t="n">
-        <v>5144440</v>
+        <v>1152393</v>
       </c>
       <c r="F12" t="n">
-        <v>1208915</v>
+        <v>738263</v>
       </c>
       <c r="G12" t="n">
-        <v>475027</v>
+        <v>5776</v>
       </c>
       <c r="H12" t="n">
-        <v>1683942</v>
+        <v>744039</v>
       </c>
       <c r="I12" t="n">
-        <v>3460498</v>
+        <v>408354</v>
       </c>
       <c r="J12" t="n">
-        <v>5144440</v>
+        <v>1152393</v>
       </c>
       <c r="K12" t="n">
-        <v>2435385</v>
+        <v>1989314</v>
       </c>
       <c r="L12" t="n">
-        <v>2435385</v>
+        <v>1989398</v>
       </c>
       <c r="M12" t="n">
-        <v>-37204</v>
+        <v>-202059</v>
       </c>
       <c r="N12" t="n">
-        <v>47166</v>
+        <v>-183598</v>
       </c>
       <c r="O12" t="n">
-        <v>113.45</v>
+        <v>-7.24</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>-31.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>-30.5</v>
       </c>
       <c r="R12" t="n">
-        <v>21.51</v>
+        <v>17</v>
       </c>
       <c r="S12" t="n">
-        <v>-2.56</v>
+        <v>-27.84</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1432,141 +1432,141 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20171229</v>
       </c>
       <c r="C13" t="n">
-        <v>33623284</v>
+        <v>2394035</v>
       </c>
       <c r="D13" t="n">
-        <v>5174388</v>
+        <v>2750405</v>
       </c>
       <c r="E13" t="n">
-        <v>38797672</v>
+        <v>5144440</v>
       </c>
       <c r="F13" t="n">
-        <v>13983138</v>
+        <v>1208915</v>
       </c>
       <c r="G13" t="n">
-        <v>582210</v>
+        <v>475027</v>
       </c>
       <c r="H13" t="n">
-        <v>14565348</v>
+        <v>1683942</v>
       </c>
       <c r="I13" t="n">
-        <v>24232324</v>
+        <v>3460498</v>
       </c>
       <c r="J13" t="n">
-        <v>38797672</v>
+        <v>5144440</v>
       </c>
       <c r="K13" t="n">
-        <v>6356889</v>
+        <v>2435385</v>
       </c>
       <c r="L13" t="n">
-        <v>6356889</v>
+        <v>2435385</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-37204</v>
       </c>
       <c r="N13" t="n">
-        <v>3175627</v>
+        <v>47166</v>
       </c>
       <c r="O13" t="n">
-        <v>18.79</v>
+        <v>113.45</v>
       </c>
       <c r="P13" t="n">
-        <v>4.53</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.3</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>17.03</v>
+        <v>21.51</v>
       </c>
       <c r="S13" t="n">
-        <v>3.72</v>
+        <v>-2.56</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>20171229</v>
       </c>
       <c r="C14" t="n">
-        <v>43185288</v>
+        <v>33623284</v>
       </c>
       <c r="D14" t="n">
-        <v>5968101</v>
+        <v>5174388</v>
       </c>
       <c r="E14" t="n">
-        <v>49153389</v>
+        <v>38797672</v>
       </c>
       <c r="F14" t="n">
-        <v>20920657</v>
+        <v>13983138</v>
       </c>
       <c r="G14" t="n">
-        <v>429462</v>
+        <v>582210</v>
       </c>
       <c r="H14" t="n">
-        <v>21350119</v>
+        <v>14565348</v>
       </c>
       <c r="I14" t="n">
-        <v>27803270</v>
+        <v>24232324</v>
       </c>
       <c r="J14" t="n">
-        <v>49153389</v>
+        <v>38797672</v>
       </c>
       <c r="K14" t="n">
-        <v>8448562</v>
+        <v>6356889</v>
       </c>
       <c r="L14" t="n">
-        <v>8448562</v>
+        <v>6356889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5978552</v>
+        <v>3175627</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>18.79</v>
       </c>
       <c r="P14" t="n">
-        <v>4.64</v>
+        <v>4.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.62</v>
+        <v>5.3</v>
       </c>
       <c r="R14" t="n">
-        <v>14.12</v>
+        <v>17.03</v>
       </c>
       <c r="S14" t="n">
-        <v>5.28</v>
+        <v>3.72</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
@@ -1590,226 +1590,226 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>20171229</v>
       </c>
       <c r="C15" t="n">
-        <v>1814029</v>
+        <v>43185288</v>
       </c>
       <c r="D15" t="n">
-        <v>1368537</v>
+        <v>5968101</v>
       </c>
       <c r="E15" t="n">
-        <v>3182566</v>
+        <v>49153389</v>
       </c>
       <c r="F15" t="n">
-        <v>849984</v>
+        <v>20920657</v>
       </c>
       <c r="G15" t="n">
-        <v>162747</v>
+        <v>429462</v>
       </c>
       <c r="H15" t="n">
-        <v>1012731</v>
+        <v>21350119</v>
       </c>
       <c r="I15" t="n">
-        <v>2169835</v>
+        <v>27803270</v>
       </c>
       <c r="J15" t="n">
-        <v>3182566</v>
+        <v>49153389</v>
       </c>
       <c r="K15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="L15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="M15" t="n">
-        <v>-8548</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-524773</v>
+        <v>5978552</v>
       </c>
       <c r="O15" t="n">
-        <v>-109.81</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>-31.4</v>
+        <v>4.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>-25.86</v>
+        <v>5.62</v>
       </c>
       <c r="R15" t="n">
-        <v>21.54</v>
+        <v>14.12</v>
       </c>
       <c r="S15" t="n">
-        <v>-23.17</v>
+        <v>5.28</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>20171229</v>
       </c>
       <c r="C16" t="n">
-        <v>562682014</v>
+        <v>1814029</v>
       </c>
       <c r="D16" t="n">
-        <v>50694081</v>
+        <v>1368537</v>
       </c>
       <c r="E16" t="n">
-        <v>613376095</v>
+        <v>3182566</v>
       </c>
       <c r="F16" t="n">
-        <v>473389042</v>
+        <v>849984</v>
       </c>
       <c r="G16" t="n">
-        <v>1198578</v>
+        <v>162747</v>
       </c>
       <c r="H16" t="n">
-        <v>474587620</v>
+        <v>1012731</v>
       </c>
       <c r="I16" t="n">
-        <v>138788475</v>
+        <v>2169835</v>
       </c>
       <c r="J16" t="n">
-        <v>613376095</v>
+        <v>3182566</v>
       </c>
       <c r="K16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="L16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="M16" t="n">
-        <v>-333094</v>
+        <v>-8548</v>
       </c>
       <c r="N16" t="n">
-        <v>20097092</v>
+        <v>-524773</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.81</v>
+        <v>-109.81</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>-31.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.97</v>
+        <v>-25.86</v>
       </c>
       <c r="R16" t="n">
-        <v>4.47</v>
+        <v>21.54</v>
       </c>
       <c r="S16" t="n">
-        <v>1.72</v>
+        <v>-23.17</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>20171229</v>
       </c>
       <c r="C17" t="n">
-        <v>9452349</v>
+        <v>562682014</v>
       </c>
       <c r="D17" t="n">
-        <v>3675048</v>
+        <v>50694081</v>
       </c>
       <c r="E17" t="n">
-        <v>13127397</v>
+        <v>613376095</v>
       </c>
       <c r="F17" t="n">
-        <v>5153805</v>
+        <v>473389042</v>
       </c>
       <c r="G17" t="n">
-        <v>198330</v>
+        <v>1198578</v>
       </c>
       <c r="H17" t="n">
-        <v>5352135</v>
+        <v>474587620</v>
       </c>
       <c r="I17" t="n">
-        <v>7775262</v>
+        <v>138788475</v>
       </c>
       <c r="J17" t="n">
-        <v>13127397</v>
+        <v>613376095</v>
       </c>
       <c r="K17" t="n">
-        <v>2210965</v>
+        <v>38626274</v>
       </c>
       <c r="L17" t="n">
-        <v>2210965</v>
+        <v>38626274</v>
       </c>
       <c r="M17" t="n">
-        <v>-119344</v>
+        <v>-333094</v>
       </c>
       <c r="N17" t="n">
-        <v>437404</v>
+        <v>20097092</v>
       </c>
       <c r="O17" t="n">
-        <v>-66.20999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.76</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
-        <v>16.86</v>
+        <v>4.47</v>
       </c>
       <c r="S17" t="n">
-        <v>4.76</v>
+        <v>1.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -1818,156 +1818,156 @@
         <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>20171229</v>
       </c>
       <c r="C18" t="n">
-        <v>23200572</v>
+        <v>9452349</v>
       </c>
       <c r="D18" t="n">
-        <v>17503197</v>
+        <v>3675048</v>
       </c>
       <c r="E18" t="n">
-        <v>40703769</v>
+        <v>13127397</v>
       </c>
       <c r="F18" t="n">
-        <v>11046661</v>
+        <v>5153805</v>
       </c>
       <c r="G18" t="n">
-        <v>1896668</v>
+        <v>198330</v>
       </c>
       <c r="H18" t="n">
-        <v>12943329</v>
+        <v>5352135</v>
       </c>
       <c r="I18" t="n">
-        <v>27760440</v>
+        <v>7775262</v>
       </c>
       <c r="J18" t="n">
-        <v>40703769</v>
+        <v>13127397</v>
       </c>
       <c r="K18" t="n">
-        <v>6970325</v>
+        <v>2210965</v>
       </c>
       <c r="L18" t="n">
-        <v>6972825</v>
+        <v>2210965</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-119344</v>
       </c>
       <c r="N18" t="n">
-        <v>7533543</v>
+        <v>437404</v>
       </c>
       <c r="O18" t="n">
-        <v>8.09</v>
+        <v>-66.20999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>13.86</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.98</v>
+        <v>3.76</v>
       </c>
       <c r="R18" t="n">
-        <v>39.17</v>
+        <v>16.86</v>
       </c>
       <c r="S18" t="n">
-        <v>15.28</v>
+        <v>4.76</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>20171229</v>
       </c>
       <c r="C19" t="n">
-        <v>3281940</v>
+        <v>23200572</v>
       </c>
       <c r="D19" t="n">
-        <v>870368</v>
+        <v>17503197</v>
       </c>
       <c r="E19" t="n">
-        <v>4152308</v>
+        <v>40703769</v>
       </c>
       <c r="F19" t="n">
-        <v>967943</v>
+        <v>11046661</v>
       </c>
       <c r="G19" t="n">
-        <v>86559</v>
+        <v>1896668</v>
       </c>
       <c r="H19" t="n">
-        <v>1054502</v>
+        <v>12943329</v>
       </c>
       <c r="I19" t="n">
-        <v>3097806</v>
+        <v>27760440</v>
       </c>
       <c r="J19" t="n">
-        <v>4152308</v>
+        <v>40703769</v>
       </c>
       <c r="K19" t="n">
-        <v>1146889</v>
+        <v>6970325</v>
       </c>
       <c r="L19" t="n">
-        <v>1146889</v>
+        <v>6972825</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>534927</v>
+        <v>7533543</v>
       </c>
       <c r="O19" t="n">
-        <v>-20.57</v>
+        <v>8.09</v>
       </c>
       <c r="P19" t="n">
-        <v>11.25</v>
+        <v>13.86</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.39</v>
+        <v>16.98</v>
       </c>
       <c r="R19" t="n">
-        <v>32.18</v>
+        <v>39.17</v>
       </c>
       <c r="S19" t="n">
-        <v>15.09</v>
+        <v>15.28</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -1985,226 +1985,226 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>20171229</v>
       </c>
       <c r="C20" t="n">
-        <v>2853342</v>
+        <v>3281940</v>
       </c>
       <c r="D20" t="n">
-        <v>851730</v>
+        <v>870368</v>
       </c>
       <c r="E20" t="n">
-        <v>3705072</v>
+        <v>4152308</v>
       </c>
       <c r="F20" t="n">
-        <v>1004265</v>
+        <v>967943</v>
       </c>
       <c r="G20" t="n">
-        <v>69436</v>
+        <v>86559</v>
       </c>
       <c r="H20" t="n">
-        <v>1073701</v>
+        <v>1054502</v>
       </c>
       <c r="I20" t="n">
-        <v>2631371</v>
+        <v>3097806</v>
       </c>
       <c r="J20" t="n">
-        <v>3705072</v>
+        <v>4152308</v>
       </c>
       <c r="K20" t="n">
-        <v>1781000</v>
+        <v>1146889</v>
       </c>
       <c r="L20" t="n">
-        <v>1781000</v>
+        <v>1146889</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>90633</v>
+        <v>534927</v>
       </c>
       <c r="O20" t="n">
-        <v>419.77</v>
+        <v>-20.57</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>11.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>14.39</v>
       </c>
       <c r="R20" t="n">
-        <v>13.22</v>
+        <v>32.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.68</v>
+        <v>15.09</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20171229</v>
       </c>
       <c r="C21" t="n">
-        <v>3911821</v>
+        <v>2853342</v>
       </c>
       <c r="D21" t="n">
-        <v>695620</v>
+        <v>851730</v>
       </c>
       <c r="E21" t="n">
-        <v>4607441</v>
+        <v>3705072</v>
       </c>
       <c r="F21" t="n">
-        <v>1177831</v>
+        <v>1004265</v>
       </c>
       <c r="G21" t="n">
-        <v>34263</v>
+        <v>69436</v>
       </c>
       <c r="H21" t="n">
-        <v>1212094</v>
+        <v>1073701</v>
       </c>
       <c r="I21" t="n">
-        <v>3395347</v>
+        <v>2631371</v>
       </c>
       <c r="J21" t="n">
-        <v>4607441</v>
+        <v>3705072</v>
       </c>
       <c r="K21" t="n">
-        <v>3394273</v>
+        <v>1781000</v>
       </c>
       <c r="L21" t="n">
-        <v>3394273</v>
+        <v>1781000</v>
       </c>
       <c r="M21" t="n">
-        <v>-33403</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-159881</v>
+        <v>90633</v>
       </c>
       <c r="O21" t="n">
-        <v>-51.53</v>
+        <v>419.77</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.16</v>
+        <v>3.05</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.36</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>11.85</v>
+        <v>13.22</v>
       </c>
       <c r="S21" t="n">
-        <v>-5.44</v>
+        <v>2.68</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20171229</v>
       </c>
       <c r="C22" t="n">
-        <v>2552428</v>
+        <v>3911821</v>
       </c>
       <c r="D22" t="n">
-        <v>2105361</v>
+        <v>695620</v>
       </c>
       <c r="E22" t="n">
-        <v>4657789</v>
+        <v>4607441</v>
       </c>
       <c r="F22" t="n">
-        <v>596917</v>
+        <v>1177831</v>
       </c>
       <c r="G22" t="n">
-        <v>34022</v>
+        <v>34263</v>
       </c>
       <c r="H22" t="n">
-        <v>630939</v>
+        <v>1212094</v>
       </c>
       <c r="I22" t="n">
-        <v>4026850</v>
+        <v>3395347</v>
       </c>
       <c r="J22" t="n">
-        <v>4657789</v>
+        <v>4607441</v>
       </c>
       <c r="K22" t="n">
-        <v>1928923</v>
+        <v>3394273</v>
       </c>
       <c r="L22" t="n">
-        <v>1928923</v>
+        <v>3394273</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-33403</v>
       </c>
       <c r="N22" t="n">
-        <v>-17348</v>
+        <v>-159881</v>
       </c>
       <c r="O22" t="n">
-        <v>-20.02</v>
+        <v>-51.53</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.45</v>
+        <v>-3.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-3.36</v>
       </c>
       <c r="R22" t="n">
-        <v>51.19</v>
+        <v>11.85</v>
       </c>
       <c r="S22" t="n">
-        <v>-2.34</v>
+        <v>-5.44</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2222,68 +2222,68 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>20171229</v>
       </c>
       <c r="C23" t="n">
-        <v>1841440</v>
+        <v>2552428</v>
       </c>
       <c r="D23" t="n">
-        <v>146800</v>
+        <v>2105361</v>
       </c>
       <c r="E23" t="n">
-        <v>1988240</v>
+        <v>4657789</v>
       </c>
       <c r="F23" t="n">
-        <v>263190</v>
+        <v>596917</v>
       </c>
       <c r="G23" t="n">
-        <v>1423</v>
+        <v>34022</v>
       </c>
       <c r="H23" t="n">
-        <v>264613</v>
+        <v>630939</v>
       </c>
       <c r="I23" t="n">
-        <v>1723627</v>
+        <v>4026850</v>
       </c>
       <c r="J23" t="n">
-        <v>1988240</v>
+        <v>4657789</v>
       </c>
       <c r="K23" t="n">
-        <v>1092488</v>
+        <v>1928923</v>
       </c>
       <c r="L23" t="n">
-        <v>1092488</v>
+        <v>1928923</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-57825</v>
+        <v>-17348</v>
       </c>
       <c r="O23" t="n">
-        <v>-162.11</v>
+        <v>-20.02</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.99</v>
+        <v>-1.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>1.81</v>
+        <v>51.19</v>
       </c>
       <c r="S23" t="n">
-        <v>0.29</v>
+        <v>-2.34</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2301,68 +2301,68 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20171229</v>
       </c>
       <c r="C24" t="n">
-        <v>1027233</v>
+        <v>1841440</v>
       </c>
       <c r="D24" t="n">
-        <v>325576</v>
+        <v>146800</v>
       </c>
       <c r="E24" t="n">
-        <v>1352809</v>
+        <v>1988240</v>
       </c>
       <c r="F24" t="n">
-        <v>938814</v>
+        <v>263190</v>
       </c>
       <c r="G24" t="n">
-        <v>21837</v>
+        <v>1423</v>
       </c>
       <c r="H24" t="n">
-        <v>960651</v>
+        <v>264613</v>
       </c>
       <c r="I24" t="n">
-        <v>392158</v>
+        <v>1723627</v>
       </c>
       <c r="J24" t="n">
-        <v>1352809</v>
+        <v>1988240</v>
       </c>
       <c r="K24" t="n">
-        <v>535873</v>
+        <v>1092488</v>
       </c>
       <c r="L24" t="n">
-        <v>535873</v>
+        <v>1092488</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-83063</v>
+        <v>-57825</v>
       </c>
       <c r="O24" t="n">
-        <v>59.33</v>
+        <v>-162.11</v>
       </c>
       <c r="P24" t="n">
-        <v>-2.99</v>
+        <v>-0.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2.82</v>
+        <v>-1</v>
       </c>
       <c r="R24" t="n">
-        <v>13.71</v>
+        <v>1.81</v>
       </c>
       <c r="S24" t="n">
-        <v>-2.38</v>
+        <v>0.29</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2380,226 +2380,226 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>20171229</v>
       </c>
       <c r="C25" t="n">
-        <v>4003240</v>
+        <v>1027233</v>
       </c>
       <c r="D25" t="n">
-        <v>789288</v>
+        <v>325576</v>
       </c>
       <c r="E25" t="n">
-        <v>4792528</v>
+        <v>1352809</v>
       </c>
       <c r="F25" t="n">
-        <v>557054</v>
+        <v>938814</v>
       </c>
       <c r="G25" t="n">
-        <v>72837</v>
+        <v>21837</v>
       </c>
       <c r="H25" t="n">
-        <v>629891</v>
+        <v>960651</v>
       </c>
       <c r="I25" t="n">
-        <v>4162637</v>
+        <v>392158</v>
       </c>
       <c r="J25" t="n">
-        <v>4792528</v>
+        <v>1352809</v>
       </c>
       <c r="K25" t="n">
-        <v>2796819</v>
+        <v>535873</v>
       </c>
       <c r="L25" t="n">
-        <v>2796819</v>
+        <v>535873</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130893</v>
+        <v>-83063</v>
       </c>
       <c r="O25" t="n">
-        <v>-60.75</v>
+        <v>59.33</v>
       </c>
       <c r="P25" t="n">
-        <v>7.19</v>
+        <v>-2.99</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.050000000000001</v>
+        <v>-2.82</v>
       </c>
       <c r="R25" t="n">
-        <v>44.55</v>
+        <v>13.71</v>
       </c>
       <c r="S25" t="n">
-        <v>7.77</v>
+        <v>-2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>20171229</v>
       </c>
       <c r="C26" t="n">
-        <v>1508135</v>
+        <v>4003240</v>
       </c>
       <c r="D26" t="n">
-        <v>364360</v>
+        <v>789288</v>
       </c>
       <c r="E26" t="n">
-        <v>1872495</v>
+        <v>4792528</v>
       </c>
       <c r="F26" t="n">
-        <v>183236</v>
+        <v>557054</v>
       </c>
       <c r="G26" t="n">
-        <v>265455</v>
+        <v>72837</v>
       </c>
       <c r="H26" t="n">
-        <v>448691</v>
+        <v>629891</v>
       </c>
       <c r="I26" t="n">
-        <v>1423804</v>
+        <v>4162637</v>
       </c>
       <c r="J26" t="n">
-        <v>1872495</v>
+        <v>4792528</v>
       </c>
       <c r="K26" t="n">
-        <v>1020000</v>
+        <v>2796819</v>
       </c>
       <c r="L26" t="n">
-        <v>1020000</v>
+        <v>2796819</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>85937</v>
+        <v>130893</v>
       </c>
       <c r="O26" t="n">
-        <v>20.82</v>
+        <v>-60.75</v>
       </c>
       <c r="P26" t="n">
-        <v>10.94</v>
+        <v>7.19</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.91</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>30.21</v>
+        <v>44.55</v>
       </c>
       <c r="S26" t="n">
-        <v>4.93</v>
+        <v>7.77</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>20171229</v>
       </c>
       <c r="C27" t="n">
-        <v>15862621</v>
+        <v>1508135</v>
       </c>
       <c r="D27" t="n">
-        <v>9920434</v>
+        <v>364360</v>
       </c>
       <c r="E27" t="n">
-        <v>25783055</v>
+        <v>1872495</v>
       </c>
       <c r="F27" t="n">
-        <v>8682418</v>
+        <v>183236</v>
       </c>
       <c r="G27" t="n">
-        <v>2075909</v>
+        <v>265455</v>
       </c>
       <c r="H27" t="n">
-        <v>10758327</v>
+        <v>448691</v>
       </c>
       <c r="I27" t="n">
-        <v>15024728</v>
+        <v>1423804</v>
       </c>
       <c r="J27" t="n">
-        <v>25783055</v>
+        <v>1872495</v>
       </c>
       <c r="K27" t="n">
-        <v>5715502</v>
+        <v>1020000</v>
       </c>
       <c r="L27" t="n">
-        <v>5715502</v>
+        <v>1020000</v>
       </c>
       <c r="M27" t="n">
-        <v>-94902</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2625853</v>
+        <v>85937</v>
       </c>
       <c r="O27" t="n">
-        <v>-9.619999999999999</v>
+        <v>20.82</v>
       </c>
       <c r="P27" t="n">
-        <v>9.220000000000001</v>
+        <v>10.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.83</v>
+        <v>12.91</v>
       </c>
       <c r="R27" t="n">
-        <v>27.08</v>
+        <v>30.21</v>
       </c>
       <c r="S27" t="n">
-        <v>11.32</v>
+        <v>4.93</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
@@ -2611,150 +2611,150 @@
         <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>20171229</v>
       </c>
       <c r="C28" t="n">
-        <v>2876139</v>
+        <v>15862621</v>
       </c>
       <c r="D28" t="n">
-        <v>1664243</v>
+        <v>9920434</v>
       </c>
       <c r="E28" t="n">
-        <v>4540382</v>
+        <v>25783055</v>
       </c>
       <c r="F28" t="n">
-        <v>1696528</v>
+        <v>8682418</v>
       </c>
       <c r="G28" t="n">
-        <v>220226</v>
+        <v>2075909</v>
       </c>
       <c r="H28" t="n">
-        <v>1916754</v>
+        <v>10758327</v>
       </c>
       <c r="I28" t="n">
-        <v>2623628</v>
+        <v>15024728</v>
       </c>
       <c r="J28" t="n">
-        <v>4540382</v>
+        <v>25783055</v>
       </c>
       <c r="K28" t="n">
-        <v>1699350</v>
+        <v>5715502</v>
       </c>
       <c r="L28" t="n">
-        <v>1699350</v>
+        <v>5715502</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-94902</v>
       </c>
       <c r="N28" t="n">
-        <v>280067</v>
+        <v>2625853</v>
       </c>
       <c r="O28" t="n">
-        <v>-3.96</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>5.08</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.79</v>
+        <v>11.83</v>
       </c>
       <c r="R28" t="n">
-        <v>13.68</v>
+        <v>27.08</v>
       </c>
       <c r="S28" t="n">
-        <v>6.63</v>
+        <v>11.32</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>20171229</v>
       </c>
       <c r="C29" t="n">
-        <v>19881489</v>
+        <v>2876139</v>
       </c>
       <c r="D29" t="n">
-        <v>8332587</v>
+        <v>1664243</v>
       </c>
       <c r="E29" t="n">
-        <v>28214076</v>
+        <v>4540382</v>
       </c>
       <c r="F29" t="n">
-        <v>15025280</v>
+        <v>1696528</v>
       </c>
       <c r="G29" t="n">
-        <v>4362112</v>
+        <v>220226</v>
       </c>
       <c r="H29" t="n">
-        <v>19387392</v>
+        <v>1916754</v>
       </c>
       <c r="I29" t="n">
-        <v>8826684</v>
+        <v>2623628</v>
       </c>
       <c r="J29" t="n">
-        <v>28214076</v>
+        <v>4540382</v>
       </c>
       <c r="K29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="L29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1266879</v>
+        <v>280067</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.13</v>
+        <v>-3.96</v>
       </c>
       <c r="P29" t="n">
-        <v>3.46</v>
+        <v>5.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.67</v>
+        <v>5.79</v>
       </c>
       <c r="R29" t="n">
-        <v>12.29</v>
+        <v>13.68</v>
       </c>
       <c r="S29" t="n">
-        <v>4.26</v>
+        <v>6.63</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -2766,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -2775,226 +2775,226 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>20171229</v>
       </c>
       <c r="C30" t="n">
-        <v>7413533</v>
+        <v>19881489</v>
       </c>
       <c r="D30" t="n">
-        <v>3944501</v>
+        <v>8332587</v>
       </c>
       <c r="E30" t="n">
-        <v>11358034</v>
+        <v>28214076</v>
       </c>
       <c r="F30" t="n">
-        <v>2972812</v>
+        <v>15025280</v>
       </c>
       <c r="G30" t="n">
-        <v>688528</v>
+        <v>4362112</v>
       </c>
       <c r="H30" t="n">
-        <v>3661340</v>
+        <v>19387392</v>
       </c>
       <c r="I30" t="n">
-        <v>7696694</v>
+        <v>8826684</v>
       </c>
       <c r="J30" t="n">
-        <v>11358034</v>
+        <v>28214076</v>
       </c>
       <c r="K30" t="n">
-        <v>3283144</v>
+        <v>3533101</v>
       </c>
       <c r="L30" t="n">
-        <v>3283144</v>
+        <v>3533101</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1172368</v>
+        <v>1266879</v>
       </c>
       <c r="O30" t="n">
-        <v>-32.4</v>
+        <v>-0.13</v>
       </c>
       <c r="P30" t="n">
-        <v>13.4</v>
+        <v>3.46</v>
       </c>
       <c r="Q30" t="n">
-        <v>17</v>
+        <v>4.67</v>
       </c>
       <c r="R30" t="n">
-        <v>32.42</v>
+        <v>12.29</v>
       </c>
       <c r="S30" t="n">
-        <v>14.24</v>
+        <v>4.26</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>20171229</v>
       </c>
       <c r="C31" t="n">
-        <v>1122653</v>
+        <v>7413533</v>
       </c>
       <c r="D31" t="n">
-        <v>417480</v>
+        <v>3944501</v>
       </c>
       <c r="E31" t="n">
-        <v>1540133</v>
+        <v>11358034</v>
       </c>
       <c r="F31" t="n">
-        <v>658296</v>
+        <v>2972812</v>
       </c>
       <c r="G31" t="n">
-        <v>87613</v>
+        <v>688528</v>
       </c>
       <c r="H31" t="n">
-        <v>745909</v>
+        <v>3661340</v>
       </c>
       <c r="I31" t="n">
-        <v>794224</v>
+        <v>7696694</v>
       </c>
       <c r="J31" t="n">
-        <v>1540133</v>
+        <v>11358034</v>
       </c>
       <c r="K31" t="n">
-        <v>714480</v>
+        <v>3283144</v>
       </c>
       <c r="L31" t="n">
-        <v>714480</v>
+        <v>3283144</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-108351</v>
+        <v>1172368</v>
       </c>
       <c r="O31" t="n">
-        <v>67.55</v>
+        <v>-32.4</v>
       </c>
       <c r="P31" t="n">
-        <v>-8.74</v>
+        <v>13.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>-8</v>
+        <v>17</v>
       </c>
       <c r="R31" t="n">
-        <v>32.31</v>
+        <v>32.42</v>
       </c>
       <c r="S31" t="n">
-        <v>-10.88</v>
+        <v>14.24</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>20171229</v>
       </c>
       <c r="C32" t="n">
-        <v>1599908</v>
+        <v>1122653</v>
       </c>
       <c r="D32" t="n">
-        <v>642707</v>
+        <v>417480</v>
       </c>
       <c r="E32" t="n">
-        <v>2242615</v>
+        <v>1540133</v>
       </c>
       <c r="F32" t="n">
-        <v>922152</v>
+        <v>658296</v>
       </c>
       <c r="G32" t="n">
-        <v>53242</v>
+        <v>87613</v>
       </c>
       <c r="H32" t="n">
-        <v>975394</v>
+        <v>745909</v>
       </c>
       <c r="I32" t="n">
-        <v>1267221</v>
+        <v>794224</v>
       </c>
       <c r="J32" t="n">
-        <v>2242615</v>
+        <v>1540133</v>
       </c>
       <c r="K32" t="n">
-        <v>1614092</v>
+        <v>714480</v>
       </c>
       <c r="L32" t="n">
-        <v>1614092</v>
+        <v>714480</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-575436</v>
+        <v>-108351</v>
       </c>
       <c r="O32" t="n">
-        <v>-83.42</v>
+        <v>67.55</v>
       </c>
       <c r="P32" t="n">
-        <v>-32.84</v>
+        <v>-8.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>-31.4</v>
+        <v>-8</v>
       </c>
       <c r="R32" t="n">
-        <v>36.66</v>
+        <v>32.31</v>
       </c>
       <c r="S32" t="n">
-        <v>-23.6</v>
+        <v>-10.88</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3012,62 +3012,62 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>20171229</v>
       </c>
       <c r="C33" t="n">
-        <v>4591742</v>
+        <v>1599908</v>
       </c>
       <c r="D33" t="n">
-        <v>2627327</v>
+        <v>642707</v>
       </c>
       <c r="E33" t="n">
-        <v>7219069</v>
+        <v>2242615</v>
       </c>
       <c r="F33" t="n">
-        <v>2414219</v>
+        <v>922152</v>
       </c>
       <c r="G33" t="n">
-        <v>610856</v>
+        <v>53242</v>
       </c>
       <c r="H33" t="n">
-        <v>3025075</v>
+        <v>975394</v>
       </c>
       <c r="I33" t="n">
-        <v>4193994</v>
+        <v>1267221</v>
       </c>
       <c r="J33" t="n">
-        <v>7219069</v>
+        <v>2242615</v>
       </c>
       <c r="K33" t="n">
-        <v>1393616</v>
+        <v>1614092</v>
       </c>
       <c r="L33" t="n">
-        <v>1393616</v>
+        <v>1614092</v>
       </c>
       <c r="M33" t="n">
-        <v>-76800</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-298</v>
+        <v>-575436</v>
       </c>
       <c r="O33" t="n">
-        <v>-81.97</v>
+        <v>-83.42</v>
       </c>
       <c r="P33" t="n">
-        <v>0.55</v>
+        <v>-32.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-31.4</v>
       </c>
       <c r="R33" t="n">
-        <v>8.029999999999999</v>
+        <v>36.66</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.98</v>
+        <v>-23.6</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3091,68 +3091,68 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20171229</v>
       </c>
       <c r="C34" t="n">
-        <v>270205662</v>
+        <v>4591742</v>
       </c>
       <c r="D34" t="n">
-        <v>56447720</v>
+        <v>2627327</v>
       </c>
       <c r="E34" t="n">
-        <v>326653382</v>
+        <v>7219069</v>
       </c>
       <c r="F34" t="n">
-        <v>254191674</v>
+        <v>2414219</v>
       </c>
       <c r="G34" t="n">
-        <v>6040646</v>
+        <v>610856</v>
       </c>
       <c r="H34" t="n">
-        <v>260232320</v>
+        <v>3025075</v>
       </c>
       <c r="I34" t="n">
-        <v>66421062</v>
+        <v>4193994</v>
       </c>
       <c r="J34" t="n">
-        <v>326653382</v>
+        <v>7219069</v>
       </c>
       <c r="K34" t="n">
-        <v>27486880</v>
+        <v>1393616</v>
       </c>
       <c r="L34" t="n">
-        <v>27486880</v>
+        <v>1393616</v>
       </c>
       <c r="M34" t="n">
-        <v>-1753005</v>
+        <v>-76800</v>
       </c>
       <c r="N34" t="n">
-        <v>6158411</v>
+        <v>-298</v>
       </c>
       <c r="O34" t="n">
-        <v>45.72</v>
+        <v>-81.97</v>
       </c>
       <c r="P34" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.78</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>0.71</v>
+        <v>-0.98</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3328,314 +3328,314 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20171229</v>
       </c>
       <c r="C37" t="n">
-        <v>8605071</v>
+        <v>1172389</v>
       </c>
       <c r="D37" t="n">
-        <v>362132</v>
+        <v>469029</v>
       </c>
       <c r="E37" t="n">
-        <v>8967203</v>
+        <v>1641418</v>
       </c>
       <c r="F37" t="n">
-        <v>3252207</v>
+        <v>457134</v>
       </c>
       <c r="G37" t="n">
-        <v>23003</v>
+        <v>39714</v>
       </c>
       <c r="H37" t="n">
-        <v>3275210</v>
+        <v>496848</v>
       </c>
       <c r="I37" t="n">
-        <v>5691993</v>
+        <v>1144570</v>
       </c>
       <c r="J37" t="n">
-        <v>8967203</v>
+        <v>1641418</v>
       </c>
       <c r="K37" t="n">
-        <v>1207456</v>
+        <v>470975</v>
       </c>
       <c r="L37" t="n">
-        <v>1207456</v>
+        <v>470975</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>561927</v>
+        <v>58869</v>
       </c>
       <c r="O37" t="n">
-        <v>258.65</v>
+        <v>18.48</v>
       </c>
       <c r="P37" t="n">
-        <v>4.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.1</v>
+        <v>2.47</v>
       </c>
       <c r="R37" t="n">
-        <v>21.26</v>
+        <v>30.68</v>
       </c>
       <c r="S37" t="n">
-        <v>5.48</v>
+        <v>2.26</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
         <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>20171229</v>
       </c>
       <c r="C38" t="n">
-        <v>1172389</v>
+        <v>5482055</v>
       </c>
       <c r="D38" t="n">
-        <v>469029</v>
+        <v>2622122</v>
       </c>
       <c r="E38" t="n">
-        <v>1641418</v>
+        <v>8104177</v>
       </c>
       <c r="F38" t="n">
-        <v>457134</v>
+        <v>3192253</v>
       </c>
       <c r="G38" t="n">
-        <v>39714</v>
+        <v>1335299</v>
       </c>
       <c r="H38" t="n">
-        <v>496848</v>
+        <v>4527552</v>
       </c>
       <c r="I38" t="n">
-        <v>1144570</v>
+        <v>3576625</v>
       </c>
       <c r="J38" t="n">
-        <v>1641418</v>
+        <v>8104177</v>
       </c>
       <c r="K38" t="n">
-        <v>470975</v>
+        <v>3806891</v>
       </c>
       <c r="L38" t="n">
-        <v>470975</v>
+        <v>3806891</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>58869</v>
+        <v>79927</v>
       </c>
       <c r="O38" t="n">
-        <v>18.48</v>
+        <v>-76.42</v>
       </c>
       <c r="P38" t="n">
-        <v>1.77</v>
+        <v>0.73</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.47</v>
+        <v>1.02</v>
       </c>
       <c r="R38" t="n">
-        <v>30.68</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="S38" t="n">
-        <v>2.26</v>
+        <v>-5.46</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>20171229</v>
       </c>
       <c r="C39" t="n">
-        <v>5482055</v>
+        <v>1851765</v>
       </c>
       <c r="D39" t="n">
-        <v>2622122</v>
+        <v>1882611</v>
       </c>
       <c r="E39" t="n">
-        <v>8104177</v>
+        <v>3734376</v>
       </c>
       <c r="F39" t="n">
-        <v>3192253</v>
+        <v>1105602</v>
       </c>
       <c r="G39" t="n">
-        <v>1335299</v>
+        <v>183735</v>
       </c>
       <c r="H39" t="n">
-        <v>4527552</v>
+        <v>1289337</v>
       </c>
       <c r="I39" t="n">
-        <v>3576625</v>
+        <v>2445039</v>
       </c>
       <c r="J39" t="n">
-        <v>8104177</v>
+        <v>3734376</v>
       </c>
       <c r="K39" t="n">
-        <v>3806891</v>
+        <v>962320</v>
       </c>
       <c r="L39" t="n">
-        <v>3806891</v>
+        <v>962320</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>79927</v>
+        <v>317930</v>
       </c>
       <c r="O39" t="n">
-        <v>-76.42</v>
+        <v>52.22224137931034</v>
       </c>
       <c r="P39" t="n">
-        <v>0.73</v>
+        <v>14.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.02</v>
+        <v>18.47</v>
       </c>
       <c r="R39" t="n">
-        <v>9.869999999999999</v>
+        <v>32.81</v>
       </c>
       <c r="S39" t="n">
-        <v>-5.46</v>
+        <v>15.71</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>20171229</v>
       </c>
       <c r="C40" t="n">
-        <v>20499461</v>
+        <v>5612569</v>
       </c>
       <c r="D40" t="n">
-        <v>26685802</v>
+        <v>2796458</v>
       </c>
       <c r="E40" t="n">
-        <v>47185263</v>
+        <v>8409027</v>
       </c>
       <c r="F40" t="n">
-        <v>11651825</v>
+        <v>4043956</v>
       </c>
       <c r="G40" t="n">
-        <v>784822</v>
+        <v>829384</v>
       </c>
       <c r="H40" t="n">
-        <v>12436647</v>
+        <v>4873340</v>
       </c>
       <c r="I40" t="n">
-        <v>34748616</v>
+        <v>3535687</v>
       </c>
       <c r="J40" t="n">
-        <v>47185263</v>
+        <v>8409027</v>
       </c>
       <c r="K40" t="n">
-        <v>8190022</v>
+        <v>812596</v>
       </c>
       <c r="L40" t="n">
-        <v>8190022</v>
+        <v>812596</v>
       </c>
       <c r="M40" t="n">
-        <v>-522449</v>
+        <v>-55200</v>
       </c>
       <c r="N40" t="n">
-        <v>2902288</v>
+        <v>254128</v>
       </c>
       <c r="O40" t="n">
-        <v>-5.06</v>
+        <v>17.08</v>
       </c>
       <c r="P40" t="n">
-        <v>5.29</v>
+        <v>2.98</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.95</v>
+        <v>4.56</v>
       </c>
       <c r="R40" t="n">
-        <v>11.62</v>
+        <v>23.52</v>
       </c>
       <c r="S40" t="n">
-        <v>1.52</v>
+        <v>3.38</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
         <v>1</v>
@@ -3644,147 +3644,147 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>20171229</v>
       </c>
       <c r="C41" t="n">
-        <v>1851765</v>
+        <v>395398572</v>
       </c>
       <c r="D41" t="n">
-        <v>1882611</v>
+        <v>92837047</v>
       </c>
       <c r="E41" t="n">
-        <v>3734376</v>
+        <v>488235619</v>
       </c>
       <c r="F41" t="n">
-        <v>1105602</v>
+        <v>291327147</v>
       </c>
       <c r="G41" t="n">
-        <v>183735</v>
+        <v>17184662</v>
       </c>
       <c r="H41" t="n">
-        <v>1289337</v>
+        <v>308511809</v>
       </c>
       <c r="I41" t="n">
-        <v>2445039</v>
+        <v>179723810</v>
       </c>
       <c r="J41" t="n">
-        <v>3734376</v>
+        <v>488235619</v>
       </c>
       <c r="K41" t="n">
-        <v>962320</v>
+        <v>26140906</v>
       </c>
       <c r="L41" t="n">
-        <v>962320</v>
+        <v>26140906</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1942</v>
       </c>
       <c r="N41" t="n">
-        <v>317930</v>
+        <v>20413050</v>
       </c>
       <c r="O41" t="n">
-        <v>52.22224137931035</v>
+        <v>-27.66</v>
       </c>
       <c r="P41" t="n">
-        <v>14.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.47</v>
+        <v>1.71</v>
       </c>
       <c r="R41" t="n">
-        <v>32.81</v>
+        <v>3.91</v>
       </c>
       <c r="S41" t="n">
-        <v>15.71</v>
+        <v>1.59</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5215</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>20171229</v>
       </c>
       <c r="C42" t="n">
-        <v>5612569</v>
+        <v>1708812</v>
       </c>
       <c r="D42" t="n">
-        <v>2796458</v>
+        <v>717206</v>
       </c>
       <c r="E42" t="n">
-        <v>8409027</v>
+        <v>2426018</v>
       </c>
       <c r="F42" t="n">
-        <v>4043956</v>
+        <v>555276</v>
       </c>
       <c r="G42" t="n">
-        <v>829384</v>
+        <v>52466</v>
       </c>
       <c r="H42" t="n">
-        <v>4873340</v>
+        <v>607742</v>
       </c>
       <c r="I42" t="n">
-        <v>3535687</v>
+        <v>1818276</v>
       </c>
       <c r="J42" t="n">
-        <v>8409027</v>
+        <v>2426018</v>
       </c>
       <c r="K42" t="n">
-        <v>812596</v>
+        <v>543375</v>
       </c>
       <c r="L42" t="n">
-        <v>812596</v>
+        <v>543375</v>
       </c>
       <c r="M42" t="n">
-        <v>-55200</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>254128</v>
+        <v>59303</v>
       </c>
       <c r="O42" t="n">
-        <v>17.08</v>
+        <v>-79.98999999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>2.98</v>
+        <v>1.35</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.56</v>
+        <v>3.66</v>
       </c>
       <c r="R42" t="n">
-        <v>23.52</v>
+        <v>19.93</v>
       </c>
       <c r="S42" t="n">
-        <v>3.38</v>
+        <v>6.48</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -3793,77 +3793,77 @@
         <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>20171229</v>
       </c>
       <c r="C43" t="n">
-        <v>395398572</v>
+        <v>2792239</v>
       </c>
       <c r="D43" t="n">
-        <v>92837047</v>
+        <v>459774</v>
       </c>
       <c r="E43" t="n">
-        <v>488235619</v>
+        <v>3252013</v>
       </c>
       <c r="F43" t="n">
-        <v>291327147</v>
+        <v>1587167</v>
       </c>
       <c r="G43" t="n">
-        <v>17184662</v>
+        <v>111626</v>
       </c>
       <c r="H43" t="n">
-        <v>308511809</v>
+        <v>1698793</v>
       </c>
       <c r="I43" t="n">
-        <v>179723810</v>
+        <v>1553220</v>
       </c>
       <c r="J43" t="n">
-        <v>488235619</v>
+        <v>3252013</v>
       </c>
       <c r="K43" t="n">
-        <v>26140906</v>
+        <v>745426</v>
       </c>
       <c r="L43" t="n">
-        <v>26140906</v>
+        <v>745426</v>
       </c>
       <c r="M43" t="n">
-        <v>-1942</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>20413050</v>
+        <v>119495</v>
       </c>
       <c r="O43" t="n">
-        <v>-27.66</v>
+        <v>-73.91</v>
       </c>
       <c r="P43" t="n">
-        <v>1.34</v>
+        <v>3.16</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.71</v>
+        <v>4.58</v>
       </c>
       <c r="R43" t="n">
-        <v>3.91</v>
+        <v>25.47</v>
       </c>
       <c r="S43" t="n">
-        <v>1.59</v>
+        <v>6.13</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -3872,314 +3872,314 @@
         <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20171229</v>
       </c>
       <c r="C44" t="n">
-        <v>1708812</v>
+        <v>2427935</v>
       </c>
       <c r="D44" t="n">
-        <v>717206</v>
+        <v>879796</v>
       </c>
       <c r="E44" t="n">
-        <v>2426018</v>
+        <v>3307731</v>
       </c>
       <c r="F44" t="n">
-        <v>555276</v>
+        <v>1515483</v>
       </c>
       <c r="G44" t="n">
-        <v>52466</v>
+        <v>50494</v>
       </c>
       <c r="H44" t="n">
-        <v>607742</v>
+        <v>1565977</v>
       </c>
       <c r="I44" t="n">
-        <v>1818276</v>
+        <v>1741754</v>
       </c>
       <c r="J44" t="n">
-        <v>2426018</v>
+        <v>3307731</v>
       </c>
       <c r="K44" t="n">
-        <v>543375</v>
+        <v>886500</v>
       </c>
       <c r="L44" t="n">
-        <v>543375</v>
+        <v>886500</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>59303</v>
+        <v>368466</v>
       </c>
       <c r="O44" t="n">
-        <v>-79.98999999999999</v>
+        <v>248.22</v>
       </c>
       <c r="P44" t="n">
-        <v>1.35</v>
+        <v>14.17</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.66</v>
+        <v>19.16</v>
       </c>
       <c r="R44" t="n">
-        <v>19.93</v>
+        <v>14.22</v>
       </c>
       <c r="S44" t="n">
-        <v>6.48</v>
+        <v>-13.44</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X44" t="n">
         <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>20171229</v>
       </c>
       <c r="C45" t="n">
-        <v>2792239</v>
+        <v>3446383</v>
       </c>
       <c r="D45" t="n">
-        <v>459774</v>
+        <v>1844832</v>
       </c>
       <c r="E45" t="n">
-        <v>3252013</v>
+        <v>5291215</v>
       </c>
       <c r="F45" t="n">
-        <v>1587167</v>
+        <v>2991393</v>
       </c>
       <c r="G45" t="n">
-        <v>111626</v>
+        <v>350802</v>
       </c>
       <c r="H45" t="n">
-        <v>1698793</v>
+        <v>3342195</v>
       </c>
       <c r="I45" t="n">
-        <v>1553220</v>
+        <v>1949020</v>
       </c>
       <c r="J45" t="n">
-        <v>3252013</v>
+        <v>5291215</v>
       </c>
       <c r="K45" t="n">
-        <v>745426</v>
+        <v>875887</v>
       </c>
       <c r="L45" t="n">
-        <v>745426</v>
+        <v>875887</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>119495</v>
+        <v>502982</v>
       </c>
       <c r="O45" t="n">
-        <v>-73.91</v>
+        <v>21.58</v>
       </c>
       <c r="P45" t="n">
-        <v>3.16</v>
+        <v>27.14</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.58</v>
+        <v>29.83</v>
       </c>
       <c r="R45" t="n">
-        <v>25.47</v>
+        <v>42.63</v>
       </c>
       <c r="S45" t="n">
-        <v>6.13</v>
+        <v>13.67</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>20171229</v>
       </c>
       <c r="C46" t="n">
-        <v>2427935</v>
+        <v>5633199</v>
       </c>
       <c r="D46" t="n">
-        <v>879796</v>
+        <v>2166470</v>
       </c>
       <c r="E46" t="n">
-        <v>3307731</v>
+        <v>7799669</v>
       </c>
       <c r="F46" t="n">
-        <v>1515483</v>
+        <v>3083453</v>
       </c>
       <c r="G46" t="n">
-        <v>50494</v>
+        <v>90237</v>
       </c>
       <c r="H46" t="n">
-        <v>1565977</v>
+        <v>3173690</v>
       </c>
       <c r="I46" t="n">
-        <v>1741754</v>
+        <v>4625979</v>
       </c>
       <c r="J46" t="n">
-        <v>3307731</v>
+        <v>7799669</v>
       </c>
       <c r="K46" t="n">
-        <v>886500</v>
+        <v>2174827</v>
       </c>
       <c r="L46" t="n">
-        <v>886500</v>
+        <v>2175232</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>368466</v>
+        <v>505599</v>
       </c>
       <c r="O46" t="n">
-        <v>248.22</v>
+        <v>-9.49</v>
       </c>
       <c r="P46" t="n">
-        <v>14.17</v>
+        <v>3.66</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.16</v>
+        <v>4.74</v>
       </c>
       <c r="R46" t="n">
-        <v>14.22</v>
+        <v>37.16</v>
       </c>
       <c r="S46" t="n">
-        <v>-13.44</v>
+        <v>4.45</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>20171229</v>
       </c>
       <c r="C47" t="n">
-        <v>3446383</v>
+        <v>4182710</v>
       </c>
       <c r="D47" t="n">
-        <v>1844832</v>
+        <v>1868153</v>
       </c>
       <c r="E47" t="n">
-        <v>5291215</v>
+        <v>6050863</v>
       </c>
       <c r="F47" t="n">
-        <v>2991393</v>
+        <v>1382274</v>
       </c>
       <c r="G47" t="n">
-        <v>350802</v>
+        <v>114179</v>
       </c>
       <c r="H47" t="n">
-        <v>3342195</v>
+        <v>1496453</v>
       </c>
       <c r="I47" t="n">
-        <v>1949020</v>
+        <v>4554410</v>
       </c>
       <c r="J47" t="n">
-        <v>5291215</v>
+        <v>6050863</v>
       </c>
       <c r="K47" t="n">
-        <v>875887</v>
+        <v>1463683</v>
       </c>
       <c r="L47" t="n">
-        <v>875887</v>
+        <v>1463683</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>-285953</v>
       </c>
       <c r="N47" t="n">
-        <v>502982</v>
+        <v>831754</v>
       </c>
       <c r="O47" t="n">
-        <v>21.58</v>
+        <v>-16.11</v>
       </c>
       <c r="P47" t="n">
-        <v>27.14</v>
+        <v>11.14</v>
       </c>
       <c r="Q47" t="n">
-        <v>29.83</v>
+        <v>12.67</v>
       </c>
       <c r="R47" t="n">
-        <v>42.63</v>
+        <v>29.61</v>
       </c>
       <c r="S47" t="n">
-        <v>13.67</v>
+        <v>14.23</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="X47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
         <v>3</v>
@@ -4197,68 +4197,68 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>20171229</v>
       </c>
       <c r="C48" t="n">
-        <v>5633199</v>
+        <v>4875493</v>
       </c>
       <c r="D48" t="n">
-        <v>2166470</v>
+        <v>1613923</v>
       </c>
       <c r="E48" t="n">
-        <v>7799669</v>
+        <v>6489416</v>
       </c>
       <c r="F48" t="n">
-        <v>3083453</v>
+        <v>2604129</v>
       </c>
       <c r="G48" t="n">
-        <v>90237</v>
+        <v>286632</v>
       </c>
       <c r="H48" t="n">
-        <v>3173690</v>
+        <v>2890761</v>
       </c>
       <c r="I48" t="n">
-        <v>4625979</v>
+        <v>3598655</v>
       </c>
       <c r="J48" t="n">
-        <v>7799669</v>
+        <v>6489416</v>
       </c>
       <c r="K48" t="n">
-        <v>2174827</v>
+        <v>863434</v>
       </c>
       <c r="L48" t="n">
-        <v>2175232</v>
+        <v>863434</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>505599</v>
+        <v>665056</v>
       </c>
       <c r="O48" t="n">
-        <v>-9.49</v>
+        <v>-47.11</v>
       </c>
       <c r="P48" t="n">
-        <v>3.66</v>
+        <v>7.08</v>
       </c>
       <c r="Q48" t="n">
-        <v>4.74</v>
+        <v>9.41</v>
       </c>
       <c r="R48" t="n">
-        <v>37.16</v>
+        <v>20.7</v>
       </c>
       <c r="S48" t="n">
-        <v>4.45</v>
+        <v>10.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>2</v>
@@ -4267,165 +4267,165 @@
         <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>20171229</v>
       </c>
       <c r="C49" t="n">
-        <v>4182710</v>
+        <v>2743525</v>
       </c>
       <c r="D49" t="n">
-        <v>1868153</v>
+        <v>1233510</v>
       </c>
       <c r="E49" t="n">
-        <v>6050863</v>
+        <v>3977035</v>
       </c>
       <c r="F49" t="n">
-        <v>1382274</v>
+        <v>1720116</v>
       </c>
       <c r="G49" t="n">
-        <v>114179</v>
+        <v>73375</v>
       </c>
       <c r="H49" t="n">
-        <v>1496453</v>
+        <v>1793491</v>
       </c>
       <c r="I49" t="n">
-        <v>4554410</v>
+        <v>2183544</v>
       </c>
       <c r="J49" t="n">
-        <v>6050863</v>
+        <v>3977035</v>
       </c>
       <c r="K49" t="n">
-        <v>1463683</v>
+        <v>1654101</v>
       </c>
       <c r="L49" t="n">
-        <v>1463683</v>
+        <v>1654200</v>
       </c>
       <c r="M49" t="n">
-        <v>-285953</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>831754</v>
+        <v>159200</v>
       </c>
       <c r="O49" t="n">
-        <v>-16.11</v>
+        <v>-93.78</v>
       </c>
       <c r="P49" t="n">
-        <v>11.14</v>
+        <v>2.66</v>
       </c>
       <c r="Q49" t="n">
-        <v>12.67</v>
+        <v>5.12</v>
       </c>
       <c r="R49" t="n">
-        <v>29.61</v>
+        <v>19.99</v>
       </c>
       <c r="S49" t="n">
-        <v>14.23</v>
+        <v>7.19</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>20171229</v>
       </c>
       <c r="C50" t="n">
-        <v>4875493</v>
+        <v>3445070</v>
       </c>
       <c r="D50" t="n">
-        <v>1613923</v>
+        <v>2507177</v>
       </c>
       <c r="E50" t="n">
-        <v>6489416</v>
+        <v>5952247</v>
       </c>
       <c r="F50" t="n">
-        <v>2604129</v>
+        <v>1882630</v>
       </c>
       <c r="G50" t="n">
-        <v>286632</v>
+        <v>350619</v>
       </c>
       <c r="H50" t="n">
-        <v>2890761</v>
+        <v>2233249</v>
       </c>
       <c r="I50" t="n">
-        <v>3598655</v>
+        <v>3718998</v>
       </c>
       <c r="J50" t="n">
-        <v>6489416</v>
+        <v>5952247</v>
       </c>
       <c r="K50" t="n">
-        <v>863434</v>
+        <v>1194711</v>
       </c>
       <c r="L50" t="n">
-        <v>863434</v>
+        <v>1194711</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>665056</v>
+        <v>946981</v>
       </c>
       <c r="O50" t="n">
-        <v>-47.11</v>
+        <v>-7.21</v>
       </c>
       <c r="P50" t="n">
-        <v>7.08</v>
+        <v>14.92</v>
       </c>
       <c r="Q50" t="n">
-        <v>9.41</v>
+        <v>19.14</v>
       </c>
       <c r="R50" t="n">
-        <v>20.7</v>
+        <v>59.12</v>
       </c>
       <c r="S50" t="n">
-        <v>10.85</v>
+        <v>17.91</v>
       </c>
       <c r="T50" t="n">
         <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y50" t="n">
         <v>3</v>
@@ -4434,77 +4434,77 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>20171229</v>
       </c>
       <c r="C51" t="n">
-        <v>2743525</v>
+        <v>30309456</v>
       </c>
       <c r="D51" t="n">
-        <v>1233510</v>
+        <v>20217175</v>
       </c>
       <c r="E51" t="n">
-        <v>3977035</v>
+        <v>50526631</v>
       </c>
       <c r="F51" t="n">
-        <v>1720116</v>
+        <v>17539365</v>
       </c>
       <c r="G51" t="n">
-        <v>73375</v>
+        <v>12480732</v>
       </c>
       <c r="H51" t="n">
-        <v>1793491</v>
+        <v>30020097</v>
       </c>
       <c r="I51" t="n">
-        <v>2183544</v>
+        <v>20506534</v>
       </c>
       <c r="J51" t="n">
-        <v>3977035</v>
+        <v>50526631</v>
       </c>
       <c r="K51" t="n">
-        <v>1654101</v>
+        <v>765288</v>
       </c>
       <c r="L51" t="n">
-        <v>1654200</v>
+        <v>765288</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>-233608</v>
       </c>
       <c r="N51" t="n">
-        <v>159200</v>
+        <v>2225195</v>
       </c>
       <c r="O51" t="n">
-        <v>-93.78</v>
+        <v>30.76</v>
       </c>
       <c r="P51" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.12</v>
+        <v>6.38</v>
       </c>
       <c r="R51" t="n">
-        <v>19.99</v>
+        <v>22.14</v>
       </c>
       <c r="S51" t="n">
-        <v>7.19</v>
+        <v>4.99</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
         <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y51" t="n">
         <v>2</v>
@@ -4513,68 +4513,68 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>20171229</v>
       </c>
       <c r="C52" t="n">
-        <v>3445070</v>
+        <v>4880144</v>
       </c>
       <c r="D52" t="n">
-        <v>2507177</v>
+        <v>935882</v>
       </c>
       <c r="E52" t="n">
-        <v>5952247</v>
+        <v>5816026</v>
       </c>
       <c r="F52" t="n">
-        <v>1882630</v>
+        <v>1030926</v>
       </c>
       <c r="G52" t="n">
-        <v>350619</v>
+        <v>153190</v>
       </c>
       <c r="H52" t="n">
-        <v>2233249</v>
+        <v>1184116</v>
       </c>
       <c r="I52" t="n">
-        <v>3718998</v>
+        <v>4631910</v>
       </c>
       <c r="J52" t="n">
-        <v>5952247</v>
+        <v>5816026</v>
       </c>
       <c r="K52" t="n">
-        <v>1194711</v>
+        <v>1068000</v>
       </c>
       <c r="L52" t="n">
-        <v>1194711</v>
+        <v>1068000</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>946981</v>
+        <v>703686</v>
       </c>
       <c r="O52" t="n">
-        <v>-7.21</v>
+        <v>6.32</v>
       </c>
       <c r="P52" t="n">
-        <v>14.92</v>
+        <v>11.44</v>
       </c>
       <c r="Q52" t="n">
-        <v>19.14</v>
+        <v>13</v>
       </c>
       <c r="R52" t="n">
-        <v>59.12</v>
+        <v>31.17</v>
       </c>
       <c r="S52" t="n">
-        <v>17.91</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="T52" t="n">
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
@@ -4592,68 +4592,68 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>20171229</v>
       </c>
       <c r="C53" t="n">
-        <v>30309456</v>
+        <v>1227447</v>
       </c>
       <c r="D53" t="n">
-        <v>20217175</v>
+        <v>227716</v>
       </c>
       <c r="E53" t="n">
-        <v>50526631</v>
+        <v>1455163</v>
       </c>
       <c r="F53" t="n">
-        <v>17539365</v>
+        <v>440081</v>
       </c>
       <c r="G53" t="n">
-        <v>12480732</v>
+        <v>126561</v>
       </c>
       <c r="H53" t="n">
-        <v>30020097</v>
+        <v>566642</v>
       </c>
       <c r="I53" t="n">
-        <v>20506534</v>
+        <v>888521</v>
       </c>
       <c r="J53" t="n">
-        <v>50526631</v>
+        <v>1455163</v>
       </c>
       <c r="K53" t="n">
-        <v>765288</v>
+        <v>237030</v>
       </c>
       <c r="L53" t="n">
-        <v>765288</v>
+        <v>237030</v>
       </c>
       <c r="M53" t="n">
-        <v>-233608</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2225195</v>
+        <v>137315</v>
       </c>
       <c r="O53" t="n">
-        <v>30.76</v>
+        <v>-41.31</v>
       </c>
       <c r="P53" t="n">
-        <v>5.2</v>
+        <v>6.69</v>
       </c>
       <c r="Q53" t="n">
-        <v>6.38</v>
+        <v>10.63</v>
       </c>
       <c r="R53" t="n">
-        <v>22.14</v>
+        <v>26.75</v>
       </c>
       <c r="S53" t="n">
-        <v>4.99</v>
+        <v>12.72</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
         <v>2</v>
@@ -4665,162 +4665,162 @@
         <v>2</v>
       </c>
       <c r="Y53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>20171229</v>
       </c>
       <c r="C54" t="n">
-        <v>4880144</v>
+        <v>25609520</v>
       </c>
       <c r="D54" t="n">
-        <v>935882</v>
+        <v>263414</v>
       </c>
       <c r="E54" t="n">
-        <v>5816026</v>
+        <v>25872934</v>
       </c>
       <c r="F54" t="n">
-        <v>1030926</v>
+        <v>22780634</v>
       </c>
       <c r="G54" t="n">
-        <v>153190</v>
+        <v>75854</v>
       </c>
       <c r="H54" t="n">
-        <v>1184116</v>
+        <v>22856488</v>
       </c>
       <c r="I54" t="n">
-        <v>4631910</v>
+        <v>3016446</v>
       </c>
       <c r="J54" t="n">
-        <v>5816026</v>
+        <v>25872934</v>
       </c>
       <c r="K54" t="n">
-        <v>1068000</v>
+        <v>1060775</v>
       </c>
       <c r="L54" t="n">
-        <v>1068000</v>
+        <v>1060775</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>703686</v>
+        <v>1642443</v>
       </c>
       <c r="O54" t="n">
-        <v>6.32</v>
+        <v>288.24</v>
       </c>
       <c r="P54" t="n">
-        <v>11.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q54" t="n">
-        <v>13</v>
+        <v>1.92</v>
       </c>
       <c r="R54" t="n">
-        <v>31.17</v>
+        <v>4.95</v>
       </c>
       <c r="S54" t="n">
-        <v>8.470000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="T54" t="n">
         <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>8114</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>20171229</v>
       </c>
       <c r="C55" t="n">
-        <v>1227447</v>
+        <v>6065772</v>
       </c>
       <c r="D55" t="n">
-        <v>227716</v>
+        <v>8968916</v>
       </c>
       <c r="E55" t="n">
-        <v>1455163</v>
+        <v>15034688</v>
       </c>
       <c r="F55" t="n">
-        <v>440081</v>
+        <v>3944361</v>
       </c>
       <c r="G55" t="n">
-        <v>126561</v>
+        <v>7815372</v>
       </c>
       <c r="H55" t="n">
-        <v>566642</v>
+        <v>11759733</v>
       </c>
       <c r="I55" t="n">
-        <v>888521</v>
+        <v>3274955</v>
       </c>
       <c r="J55" t="n">
-        <v>1455163</v>
+        <v>15034688</v>
       </c>
       <c r="K55" t="n">
-        <v>237030</v>
+        <v>749218</v>
       </c>
       <c r="L55" t="n">
-        <v>237030</v>
+        <v>749218</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>137315</v>
+        <v>904566</v>
       </c>
       <c r="O55" t="n">
-        <v>-41.31</v>
+        <v>13.36</v>
       </c>
       <c r="P55" t="n">
-        <v>6.69</v>
+        <v>13.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>10.63</v>
+        <v>15.94</v>
       </c>
       <c r="R55" t="n">
-        <v>26.75</v>
+        <v>38.22</v>
       </c>
       <c r="S55" t="n">
-        <v>12.72</v>
+        <v>13.18</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y55" t="n">
         <v>3</v>
@@ -4829,68 +4829,68 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>20171229</v>
       </c>
       <c r="C56" t="n">
-        <v>25609520</v>
+        <v>10028855</v>
       </c>
       <c r="D56" t="n">
-        <v>263414</v>
+        <v>5318722</v>
       </c>
       <c r="E56" t="n">
-        <v>25872934</v>
+        <v>15347577</v>
       </c>
       <c r="F56" t="n">
-        <v>22780634</v>
+        <v>6675261</v>
       </c>
       <c r="G56" t="n">
-        <v>75854</v>
+        <v>654165</v>
       </c>
       <c r="H56" t="n">
-        <v>22856488</v>
+        <v>7329426</v>
       </c>
       <c r="I56" t="n">
-        <v>3016446</v>
+        <v>8018151</v>
       </c>
       <c r="J56" t="n">
-        <v>25872934</v>
+        <v>15347577</v>
       </c>
       <c r="K56" t="n">
-        <v>1060775</v>
+        <v>2800000</v>
       </c>
       <c r="L56" t="n">
-        <v>1060775</v>
+        <v>2800000</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1642443</v>
+        <v>727634</v>
       </c>
       <c r="O56" t="n">
-        <v>288.24</v>
+        <v>23.42</v>
       </c>
       <c r="P56" t="n">
-        <v>1.41</v>
+        <v>3.3</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.92</v>
+        <v>4.12</v>
       </c>
       <c r="R56" t="n">
-        <v>4.95</v>
+        <v>16.04</v>
       </c>
       <c r="S56" t="n">
-        <v>2.15</v>
+        <v>3.59</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -4899,77 +4899,77 @@
         <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8114</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>20171229</v>
       </c>
       <c r="C57" t="n">
-        <v>6065772</v>
+        <v>3504349</v>
       </c>
       <c r="D57" t="n">
-        <v>8968916</v>
+        <v>1871644</v>
       </c>
       <c r="E57" t="n">
-        <v>15034688</v>
+        <v>5375993</v>
       </c>
       <c r="F57" t="n">
-        <v>3944361</v>
+        <v>2237570</v>
       </c>
       <c r="G57" t="n">
-        <v>7815372</v>
+        <v>219070</v>
       </c>
       <c r="H57" t="n">
-        <v>11759733</v>
+        <v>2456640</v>
       </c>
       <c r="I57" t="n">
-        <v>3274955</v>
+        <v>2919353</v>
       </c>
       <c r="J57" t="n">
-        <v>15034688</v>
+        <v>5375993</v>
       </c>
       <c r="K57" t="n">
-        <v>749218</v>
+        <v>1197260</v>
       </c>
       <c r="L57" t="n">
-        <v>749218</v>
+        <v>1197260</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>904566</v>
+        <v>615237</v>
       </c>
       <c r="O57" t="n">
-        <v>13.36</v>
+        <v>-24.12</v>
       </c>
       <c r="P57" t="n">
-        <v>13.25</v>
+        <v>8.26</v>
       </c>
       <c r="Q57" t="n">
-        <v>15.94</v>
+        <v>11.16</v>
       </c>
       <c r="R57" t="n">
-        <v>38.22</v>
+        <v>26.65</v>
       </c>
       <c r="S57" t="n">
-        <v>13.18</v>
+        <v>12.39</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
         <v>3</v>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="X57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="n">
         <v>3</v>
@@ -4987,68 +4987,68 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>20171229</v>
       </c>
       <c r="C58" t="n">
-        <v>10028855</v>
+        <v>413709</v>
       </c>
       <c r="D58" t="n">
-        <v>5318722</v>
+        <v>378283</v>
       </c>
       <c r="E58" t="n">
-        <v>15347577</v>
+        <v>791992</v>
       </c>
       <c r="F58" t="n">
-        <v>6675261</v>
+        <v>224370</v>
       </c>
       <c r="G58" t="n">
-        <v>654165</v>
+        <v>945</v>
       </c>
       <c r="H58" t="n">
-        <v>7329426</v>
+        <v>225315</v>
       </c>
       <c r="I58" t="n">
-        <v>8018151</v>
+        <v>566677</v>
       </c>
       <c r="J58" t="n">
-        <v>15347577</v>
+        <v>791992</v>
       </c>
       <c r="K58" t="n">
-        <v>2800000</v>
+        <v>528048</v>
       </c>
       <c r="L58" t="n">
-        <v>2800000</v>
+        <v>528048</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>727634</v>
+        <v>14517</v>
       </c>
       <c r="O58" t="n">
-        <v>23.42</v>
+        <v>204.11</v>
       </c>
       <c r="P58" t="n">
-        <v>3.3</v>
+        <v>1.15</v>
       </c>
       <c r="Q58" t="n">
-        <v>4.12</v>
+        <v>1.95</v>
       </c>
       <c r="R58" t="n">
-        <v>16.04</v>
+        <v>28.76</v>
       </c>
       <c r="S58" t="n">
-        <v>3.59</v>
+        <v>1.64</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -5057,165 +5057,165 @@
         <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>20171229</v>
       </c>
       <c r="C59" t="n">
-        <v>3504349</v>
+        <v>8605071</v>
       </c>
       <c r="D59" t="n">
-        <v>1871644</v>
+        <v>362132</v>
       </c>
       <c r="E59" t="n">
-        <v>5375993</v>
+        <v>8967203</v>
       </c>
       <c r="F59" t="n">
-        <v>2237570</v>
+        <v>3252207</v>
       </c>
       <c r="G59" t="n">
-        <v>219070</v>
+        <v>23003</v>
       </c>
       <c r="H59" t="n">
-        <v>2456640</v>
+        <v>3275210</v>
       </c>
       <c r="I59" t="n">
-        <v>2919353</v>
+        <v>5691993</v>
       </c>
       <c r="J59" t="n">
-        <v>5375993</v>
+        <v>8967203</v>
       </c>
       <c r="K59" t="n">
-        <v>1197260</v>
+        <v>1207456</v>
       </c>
       <c r="L59" t="n">
-        <v>1197260</v>
+        <v>1207456</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>615237</v>
+        <v>561927</v>
       </c>
       <c r="O59" t="n">
-        <v>-24.12</v>
+        <v>258.65</v>
       </c>
       <c r="P59" t="n">
-        <v>8.26</v>
+        <v>4.8</v>
       </c>
       <c r="Q59" t="n">
-        <v>11.16</v>
+        <v>6.1</v>
       </c>
       <c r="R59" t="n">
-        <v>26.65</v>
+        <v>21.26</v>
       </c>
       <c r="S59" t="n">
-        <v>12.39</v>
+        <v>5.48</v>
       </c>
       <c r="T59" t="n">
         <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
         <v>2</v>
       </c>
       <c r="Y59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>20171229</v>
       </c>
       <c r="C60" t="n">
-        <v>413709</v>
+        <v>20499461</v>
       </c>
       <c r="D60" t="n">
-        <v>378283</v>
+        <v>26685802</v>
       </c>
       <c r="E60" t="n">
-        <v>791992</v>
+        <v>47185263</v>
       </c>
       <c r="F60" t="n">
-        <v>224370</v>
+        <v>11651825</v>
       </c>
       <c r="G60" t="n">
-        <v>945</v>
+        <v>784822</v>
       </c>
       <c r="H60" t="n">
-        <v>225315</v>
+        <v>12436647</v>
       </c>
       <c r="I60" t="n">
-        <v>566677</v>
+        <v>34748616</v>
       </c>
       <c r="J60" t="n">
-        <v>791992</v>
+        <v>47185263</v>
       </c>
       <c r="K60" t="n">
-        <v>528048</v>
+        <v>8190022</v>
       </c>
       <c r="L60" t="n">
-        <v>528048</v>
+        <v>8190022</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>-522449</v>
       </c>
       <c r="N60" t="n">
-        <v>14517</v>
+        <v>2902288</v>
       </c>
       <c r="O60" t="n">
-        <v>204.11</v>
+        <v>-5.06</v>
       </c>
       <c r="P60" t="n">
-        <v>1.15</v>
+        <v>5.29</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.95</v>
+        <v>5.95</v>
       </c>
       <c r="R60" t="n">
-        <v>28.76</v>
+        <v>11.62</v>
       </c>
       <c r="S60" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
         <v>1</v>
